--- a/data_query.xlsx
+++ b/data_query.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive - SMK Negeri 3 Jombang\Documents\SKRIPSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4F4F4-ADB7-4598-8393-8BBC42FE1FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE935A04-2F56-4D5C-9E55-2EAF01D4861B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>daftar_obat</t>
   </si>
   <si>
-    <t>kekurangan darah atau anemia</t>
-  </si>
-  <si>
     <t>ada jamur pada kulit</t>
   </si>
   <si>
@@ -51,75 +48,24 @@
     <t>kekurangan nafsu makan di masa pertumbuhan anak</t>
   </si>
   <si>
-    <t>Kurkumex</t>
-  </si>
-  <si>
-    <t>tekanan darah terlalu tinggi</t>
-  </si>
-  <si>
     <t>Lapistan, Freedol, Novapyron</t>
   </si>
   <si>
-    <t>Paracetamol, Novagesic</t>
-  </si>
-  <si>
     <t>saya sakit gigi</t>
   </si>
   <si>
-    <t>nyeri haid di hari pertama</t>
-  </si>
-  <si>
-    <t>sesak nafas karena asma</t>
-  </si>
-  <si>
-    <t>BAB encer atau diare</t>
-  </si>
-  <si>
-    <t>Loperamide, Attalpugite</t>
-  </si>
-  <si>
-    <t>gatal karena alergi</t>
-  </si>
-  <si>
     <t>Loratadine, Cetirizine, CTM</t>
   </si>
   <si>
-    <t>mual - mual akibat asam lambung</t>
-  </si>
-  <si>
-    <t>Novamag, Berlosid</t>
-  </si>
-  <si>
     <t>Omegavit, Ramabion</t>
   </si>
   <si>
-    <t>Ketoconazole, Miconazole</t>
-  </si>
-  <si>
-    <t>Allopurinol, Omeric</t>
-  </si>
-  <si>
-    <t>Simvastatin, Atorvastatin</t>
-  </si>
-  <si>
     <t>pembengkakan tubuh akibat gagal ginjal atau gagal jantung</t>
   </si>
   <si>
-    <t>sering kesemutan</t>
-  </si>
-  <si>
     <t>Hufaneuron, Damuvit</t>
   </si>
   <si>
-    <t>nyeri kepala sampai berputar</t>
-  </si>
-  <si>
-    <t>Histigo, Dimenhydrinate</t>
-  </si>
-  <si>
-    <t>saya muntah - muntah</t>
-  </si>
-  <si>
     <t>mata merah akibat mata kering</t>
   </si>
   <si>
@@ -129,57 +75,18 @@
     <t>saya mengalami nyeri otot</t>
   </si>
   <si>
-    <t>saya nyeri badan</t>
-  </si>
-  <si>
-    <t>nyeri saat kencing</t>
-  </si>
-  <si>
-    <t>kesulitan saat BAB</t>
-  </si>
-  <si>
     <t>Microlax, Dulcolax</t>
   </si>
   <si>
-    <t>kulit bernanah</t>
-  </si>
-  <si>
     <t>Gentamicin Salep, Kloramfenikol Salep</t>
   </si>
   <si>
-    <t>vitamin untuk tulang</t>
-  </si>
-  <si>
-    <t>nyeri kepala biasa</t>
-  </si>
-  <si>
     <t>Domperidone, Ondansetron, Nilatika</t>
   </si>
   <si>
-    <t>Amlogal, Farmoten</t>
-  </si>
-  <si>
-    <t>Paracetamol, Freedol</t>
-  </si>
-  <si>
     <t>Osvion plus</t>
   </si>
   <si>
-    <t>Aminophylline, Salbutamol Tablet</t>
-  </si>
-  <si>
-    <t>Vitamin B Complex, Selkom-c, Benovit C</t>
-  </si>
-  <si>
-    <t>Furosemide, Farmoten</t>
-  </si>
-  <si>
-    <t>Freedol, Natrium Diklofenak Tablet</t>
-  </si>
-  <si>
-    <t>Paracetamol, topcilin</t>
-  </si>
-  <si>
     <t>saya mengalami batuk dan pilek</t>
   </si>
   <si>
@@ -192,10 +99,103 @@
     <t>Paracetamol, Natrium Diklofenak Tablet, Fasgo Forte</t>
   </si>
   <si>
-    <t>Paracetamol, Spasminal, Freedol</t>
-  </si>
-  <si>
     <t>obat untuk menurunkan kadar kolesterol yang tinggi</t>
+  </si>
+  <si>
+    <t>Paracetamol, Novagesic, topcilin</t>
+  </si>
+  <si>
+    <t>rasa nyeri haid di hari pertama</t>
+  </si>
+  <si>
+    <t>Lapistan, Spasminal, Freedol</t>
+  </si>
+  <si>
+    <t>sesak nafas karena serangan asma</t>
+  </si>
+  <si>
+    <t>Aminophylline, Salbutamol Tablet, Bufakris syrup</t>
+  </si>
+  <si>
+    <t>Loperamide, Attalpugite, Bidium</t>
+  </si>
+  <si>
+    <t>BAB encer atau diare akut</t>
+  </si>
+  <si>
+    <t>gatal seperti gejala alergi</t>
+  </si>
+  <si>
+    <t>mual - mual seperti gejala asam lambung</t>
+  </si>
+  <si>
+    <t>Novamag, Berlosid, Samtacid</t>
+  </si>
+  <si>
+    <t>kekurangan darah atau anemia dan kekurangan zat besi</t>
+  </si>
+  <si>
+    <t>Ketoconazole, Miconazole, Mycostop</t>
+  </si>
+  <si>
+    <t>Vitamin B Complex, Selkom-c, Benovit C, Imnusive for Adults</t>
+  </si>
+  <si>
+    <t>Allopurinol, Omeric, Alodan</t>
+  </si>
+  <si>
+    <t>Simvastatin, Atorvastatin, Konilife redaxin</t>
+  </si>
+  <si>
+    <t>Furosemide, Farmoten, Prix</t>
+  </si>
+  <si>
+    <t>sering kesemutan akibat kekurangan vitamin b</t>
+  </si>
+  <si>
+    <t>Kurkumex, Damuvit</t>
+  </si>
+  <si>
+    <t>sakit kepala atau pusing sampai berputar seperti vertigo</t>
+  </si>
+  <si>
+    <t>Histigo, Dimenhydrinate, Merislon</t>
+  </si>
+  <si>
+    <t>saya mual dan muntah - muntah</t>
+  </si>
+  <si>
+    <t>Saya merasakan sakit kepala dan demam</t>
+  </si>
+  <si>
+    <t>topcilin, Paracetamol, Novagesic</t>
+  </si>
+  <si>
+    <t>saya nyeri ringan pada badan</t>
+  </si>
+  <si>
+    <t>Freedol, Natrium Diklofenak Tablet, Lapistan</t>
+  </si>
+  <si>
+    <t>nyeri pada saluran kencing saat kencing</t>
+  </si>
+  <si>
+    <t>Paracetamol, Freedol, Cefadroxil</t>
+  </si>
+  <si>
+    <t>kesulitan saat buang air besar</t>
+  </si>
+  <si>
+    <t>kulit bernanah akibat infeksi kulit</t>
+  </si>
+  <si>
+    <t>saya nyeri kepala ringan</t>
+  </si>
+  <si>
+    <t>Paracetamol, topcilin, Novagesic</t>
+  </si>
+  <si>
+    <t>nyeri pada tulang dan nyeri pada persendian</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -563,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -574,10 +574,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -585,10 +585,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -596,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -607,10 +607,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -618,10 +618,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -629,10 +629,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -640,10 +640,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -651,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,10 +662,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -673,10 +673,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -684,10 +684,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
@@ -695,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -706,10 +706,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -717,21 +717,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -739,10 +739,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,10 +750,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -761,10 +761,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -772,10 +772,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>49</v>
@@ -794,10 +794,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -805,10 +805,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,10 +816,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,10 +827,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
